--- a/xlsx/尼泊爾_intext.xlsx
+++ b/xlsx/尼泊爾_intext.xlsx
@@ -29,7 +29,7 @@
     <t>尼泊尔国旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_尼泊爾</t>
+    <t>体育运动_体育运动_伊朗_尼泊爾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%B3%8A%E5%B0%94%E5%9B%BD%E5%BE%BD</t>
@@ -5279,7 +5279,7 @@
         <v>160</v>
       </c>
       <c r="G84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H84" t="s">
         <v>4</v>
